--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2176 +436,4096 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>savan link</t>
+          <t>spotify link</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Plays  March 13, 2024</t>
+          <t>NEW PLAYS April 18, 2025</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Labels</t>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ARTISTS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LABELS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TITLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/baarish-ban-jaana/MQcGaxFJD3Q</t>
+          <t>https://open.spotify.com/track/3qrdLVOClRU4yPkcXZ7c5u</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217916475</t>
+          <t>249,156,700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+          <t>2020-02-04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ayushmann Khurrana, Tanishk-Vayu</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>© 2020 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mere Liye Tum Kaafi Ho (From "Shubh Mangal Zyada Saavdhan")</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/jo-tu-na-mila/OXw4odPYPFg_</t>
+          <t>https://open.spotify.com/track/6E9UwSfT80age2xknoMS7Y</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>213,619,079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>2019-10-03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Payal Dev, Jubin Nautiyal, Kunaal Vermaa</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>© 2019 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tum Hi Aana (From "Marjaavaan")</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/zihaal-e-miskin/OQAgUxlXTmM</t>
+          <t>https://open.spotify.com/track/32765xcLM1fd6wQIpkN9A0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>78089233</t>
+          <t>201,618,778</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>℗ 2023 Universal Music India Pvt. Ltd.</t>
+          <t>2015-05-21</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ami Mishra, Kunaal Vermaa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>℗ 2015 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hasi - Male Version</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/laal-bindi/FzggVyNKdUY</t>
+          <t>https://open.spotify.com/track/4tjLYTXFqZhkUDga4bQ0yl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39968759</t>
+          <t>181,547,997</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>℗ 2018 Universal Music India Pvt. Ltd.</t>
+          <t>2018-07-04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Dhvani Bhanushali, Ikka, Tanishk Bagchi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>© 2018 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dilbar (From "Satyameva Jayate")</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tu-bhi-sataya-jayega/HhotQSZaQWY</t>
+          <t>https://open.spotify.com/track/1im9BMeeKze7rkBPIEpCUr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25291379</t>
+          <t>180,589,695</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+          <t>2017-07-20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Armaan Malik</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jab Tak</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/dhokebaaz/PV0hfEdxelo</t>
+          <t>https://open.spotify.com/track/1ccZZf0IQi5y0bHMl2aGDF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19529014</t>
+          <t>158,498,434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>℗ 2022 Universal Music India Pvt. Ltd.</t>
+          <t>2019-08-09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>© 2019 Kurian &amp; Co, Under Exclusive License from Kurian &amp; Co to Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gulabi Aankhen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/pyaar-karte-ho-na/qjDZ,EIA4Ic_</t>
+          <t>https://open.spotify.com/track/6q9XTgfWilsnyiFofvYrIF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>147,181,582</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>2019-12-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Badshah, Neha Kakkar, Varun Dhawan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>© 2019 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garmi (From "Street Dancer 3D") (feat. Varun Dhawan)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/aaj-bhi/RA8GHDVedUs</t>
+          <t>https://open.spotify.com/track/51DEaelXeJJ6cFFYbX8Hal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>65506601</t>
+          <t>157,524,098</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>℗ 2020 Universal Music India Pvt. Ltd.</t>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Javed-Mohsin, Vishal Mishra, Shreya Ghoshal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>© 2023 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Zihaal e Miskin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/aaya-na-tu/PzpoK6A6L7o_</t>
+          <t>https://open.spotify.com/track/6qZyM6JV8ohLC4S2EL5sFh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>151,501,027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sachet Tandon, Nikhita Gandhi, Madhubanti Bagchi, Sachin-Jigar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>© 2021 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Barbaadiyan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/baarish-ban-jaana/MQcGaxFJD3Q</t>
+          <t>https://open.spotify.com/track/6qCNaRRr5xJALfNJvh0NAw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>217916475</t>
+          <t>146,321,201</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+          <t>2018-02-08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Zack Knight, Jasmin Walia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>© 2018 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bom Diggy Diggy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/bepanah-pyaar/HSsdBRYEcks</t>
+          <t>https://open.spotify.com/track/43GfQ1SC17rBWiHkOtdwK8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>36619014</t>
+          <t>138,461,975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+          <t>2018-02-09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Atif Aslam, Shirley Setia, Dj Chetas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>© 2018 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jab Koi Baat - Recreated</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/yaad-na-aaye/PwAyfSYJTV8</t>
+          <t>https://open.spotify.com/track/2Z6HgNji9cNlFLNORw6wDQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38916923</t>
+          <t>143,464,622</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>℗ 2022 Universal Music India Pvt. Ltd.</t>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mansheel Gujral, Akhil Sachdeva</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>© 2020 Zee Music Company</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Channa Ve - From "Bhoot - Part One: The Haunted Ship"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/laal-chunariya/BC8ZCSRhbUY</t>
+          <t>https://open.spotify.com/track/2n9ylYiF7urpXo36qBwr3g</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>63215031</t>
+          <t>115,889,696</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>℗ 2020 Universal Music India Pvt. Ltd.</t>
+          <t>2018-12-20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Stebin Ben</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>© 2018 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mera Dil Bhi Kitna Pagal Hai - Recreated Version</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/woh-chaand-kahan-se-laogi/zoaO9yQ2GcM_</t>
+          <t>https://open.spotify.com/track/6V7UVqe8XnAS4WPdpaw5TK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>107,888,428</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Stebin Ben, Asees Kaur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>© 2023 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tu Mile Dil Khile</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/galat/RF4DWgxfVF8</t>
+          <t>https://open.spotify.com/track/02zPo0Dt0R4TTFY5zLJZnK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>94,318,840</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1983-06-10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kalyanji-Anandji, Kishore Kumar</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>℗ 1983 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Neele Neele Ambar Par - Male Version</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/i-love-you/HwIBZBYFAl0</t>
+          <t>https://open.spotify.com/track/1PDREqVNvmphIoNac3Vz8c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>134,679,410</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2016-01-06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ankit Tiwari, Palak Muchhal, Sameer Anjaan</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>© 2016 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sanam Teri Kasam</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/drunk-n-high/FBwJBCRkTX8</t>
+          <t>https://open.spotify.com/track/1ApfHqjOoBmJZ0SjdjzVyA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>84,252,332</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-11-30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sanam, Simran Sehgal</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yeh Raaten Yeh Mausam</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/baarish-aayi-hai/Kik6a1kJeWM</t>
+          <t>https://open.spotify.com/track/3WVtOC0yQGiifTSeESXIrw</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>67,473,706</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sanam, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>© 2015 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O Mere Dil Ke Chain</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/baarish-ban-jaana-bhojpuri/SD8bRzt3QQY</t>
+          <t>https://open.spotify.com/track/5DIt4eq2D6CZjX1s5jwrnP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>61,748,752</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-07-05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Badshah, Sunanda Sharma</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>© 2018 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tere Naal Nachna (From "Nawabzaade")</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/bepanah-ishq/BxA4QBF4QmU</t>
+          <t>https://open.spotify.com/track/0QHEWicUbdyWuHsMcVd1Ka</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>65,042,053</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-03-12</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yo Yo Honey Singh</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>© 2018 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Chaar Botal Vodka (From "Ragini Mms 2")</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kehndi-haan-kehndi-naa/JxwcAStWb2w</t>
+          <t>https://open.spotify.com/track/6oDHAjaJJjwwgoAuMIeY9K</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>58,030,883</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-10-10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Yash Narvekar, Tanishk Bagchi</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>© 2019 Super Cassettes Industries Private Limited, Universal Music Publishing Group</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ek Toh Kum Zindagani (From "Marjaavaan")</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jodaa/AlomXhsCGgA</t>
+          <t>https://open.spotify.com/track/5VKvDHouRJ4a8VNXrzTWnc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>63,096,041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-08-17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Badshah, Aastha Gill</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>℗ 2018 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dj Waley Babu (feat. Aastha Gill)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/faraar/GCUbaRVxekc</t>
+          <t>https://open.spotify.com/track/0mvcsYusnTYlAkOZ077lDb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>58,432,877</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Raftaar, Rashmeet Kaur, Surbhi Jyoti</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>℗ 2021 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ghana Kasoota (feat. Surbhi Jyoti)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/intezaar/EkBUApElf1M_</t>
+          <t>https://open.spotify.com/track/7gAyu0od48mkaCw1laPKVC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>56,328,016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vayu, Aastha Gill, AKASA, Puri</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>℗ 2019 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Naagin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/ae-mere-dil/PiMFaAdgX0k</t>
+          <t>https://open.spotify.com/track/5inzjqKe05zP1eInEO8O1i</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>55,660,310</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Anirudh Ravichander, Vishal Dadlani, Shilpa Rao, Kumaar</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>© 2023 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Not Ramaiya Vastavaiya</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/mohabbat-hai/QxEnbkJXT2w</t>
+          <t>https://open.spotify.com/track/1nvvaiJbrhCkM3Az74N1pM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>58,073,839</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Jasleen Royal, Anvita Dutt, Shraddha Sehgal, Prerna Arora, Ashwani Basoya</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>℗ 2023 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ranjha - Sid X Kiara Wedding Version</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/majnu/LyMDQENfGnk</t>
+          <t>https://open.spotify.com/track/733B0eINqwUqzV49kNRPPA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>56,877,513</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-07-15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lag Ja Gale</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/saaiyaan/KV0AYxpDRnc</t>
+          <t>https://open.spotify.com/track/3eDsxtliwduBeC3UAdOMG5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>56,156,190</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-08-16</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ash King, Jigar Saraiya, Sachin-Jigar, Raftaar, Sidharth Malhotra</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bandook Meri Laila (From "A Gentleman") (feat. Raftaar, Sidharth Malhotra)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/sona-lagda/CV0sBDBWBVU</t>
+          <t>https://open.spotify.com/track/6anGj4SX83j5DyG3aZOzqc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>53,894,591</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Arjun Kanungo</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>© 2022 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Zara Zara - MTV Unwind</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/mafiyaan/KScmZDgIbwc</t>
+          <t>https://open.spotify.com/track/39QJ7KkN3L8LLqQqsO85W1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>46,767,059</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yo Yo Honey Singh, Neha Kakkar, Nushrratt Bharuccha</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>© 2021 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Saiyaan Ji</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/teri-ada/R1AzACtcXWQ</t>
+          <t>https://open.spotify.com/track/6fORBVECjNDJ1gdq5uuoAz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>54,216,509</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-08-04</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mamta Sharma, Aishwarya</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>© 2010 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Munni Badnaam</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/bahana/GScdY0IEXWE</t>
+          <t>https://open.spotify.com/track/2q0V50aNlI1RQXJyE5HDgD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>43,996,429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-09-24</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sachin-Jigar, Darshan Raval, Neha Kakkar</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>℗ 2019 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Odhani (From "Made in China")</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/party-nonstop/BQwHe0IIAVw</t>
+          <t>https://open.spotify.com/track/1PMyULgDs4FZNhFi7MPw8n</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>40,864,796</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-08-24</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Siddharth Slathia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>© 2018 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Haare Haare Hum To Dil Se Haare - Unplugged Version</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/waada-hai/BjE6ekcFVn0</t>
+          <t>https://open.spotify.com/track/48ZZ4P71WmMID03EmZGe23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>44,719,280</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-10-31</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sanam, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tujhse Naraz Nahi Zindagi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/humko-tum-mil-gaye/OBsZQRx-QgY</t>
+          <t>https://open.spotify.com/track/1qMe2jbUwU3oEfw9SfSrh3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>44,719,280</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>© Saregama</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tujhse Naraz Nahi Zindagi (Remix) - From "Masoom"</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/khud-se-zyada/Nlk5RzgAVQo</t>
+          <t>https://open.spotify.com/track/3MPHub8AYXBHMEqJa4yrGc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>43,914,975</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sanam, Laxmikant–Pyarelal</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>© 2015 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mere Mehboob Qayamat Hogi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kisi-aur-naal/BgMHQxtadn8</t>
+          <t>https://open.spotify.com/track/1gBtdwZhhJmRn68RaOA80s</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>43,914,975</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>© Saregama</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mere Mehboob Qayamat Hogi (Remix) - From "Mr. X in Bombay"</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/hum-tum/Ii4gSBhpVXg</t>
+          <t>https://open.spotify.com/track/7HExkRyYBly0RMz47kzgS5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>40,954,410</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-06-08</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ami Mishra, Kunaal Vermaa, KASYAP, VIBIE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>℗ 2023 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hasi Ban Gaye</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jo-tu-na-mila-acoustic/AAclAFlEWVU</t>
+          <t>https://open.spotify.com/track/35Rrbt58ADLxyo1lu7xhZu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>41,913,582</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-07-29</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Himesh Reshammiya, Krishna Beuraa, Ahir</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>© 2005 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Aap Ki Kashish</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/woh-baarishein/N1ssXRFmfAs</t>
+          <t>https://open.spotify.com/track/4obyqyCX0Vx839PTsz1OGf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>37,420,013</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tony Kakkar، Neha Kakkar</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>© 2020 Desi Music Factory</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Goa Beach</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tu-na-mera/SV4kAARoAkc</t>
+          <t>https://open.spotify.com/track/2Q6Eo7zJ3woi7oVUkfDt1W</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>39,083,787</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-09-30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Aap Ki Nazron Ne Samjha</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tumse-pyaar-hai/FhseAiJgXVQ</t>
+          <t>https://open.spotify.com/track/2TbCdbFzs2xO2nzasn0Qvw</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>35,748,875</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-10-18</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sachin-Jigar, Badshah, Shalmali Kholgade, Gurdeep Mehndi</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>℗ 2019 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Don't Be Shy Again (From "Bala")</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/cheater-mohan/I0VZdVl2aHA</t>
+          <t>https://open.spotify.com/track/0t13TDloNQhmFFLOa4bMhs</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>38,919,088</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Asees Kaur, Pritam</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>© 2023 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ve Kamleya - Asees Version</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/kya-kar-diya/rPPF16gUpFE_</t>
+          <t>https://open.spotify.com/track/3CXHPRFNic9WOsazT4huOJ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>40,767,697</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2012-06-24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sajid-Wajid, Mamta Sharma, Sarosh Sami</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>℗ 2012 UTV under exclusive license to Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Aa Re Pritam Pyaare</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/barsaat-aa-gayi/8EDohweBnhE_</t>
+          <t>https://open.spotify.com/track/1IInNAVdueQgjrtVsPZEkW</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>36,277,723</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yo Yo Honey Singh, Neha Kakkar, Singhsta, Pinaki, Sean, Allistair</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>© 2020 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Makhna (From "Makhna")</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tum-na-ho/RFtfdAQEZlw</t>
+          <t>https://open.spotify.com/track/6YRbDkyTzsizAWFz8kwiI7</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>36,694,139</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2004-04-09</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Jatin-Lalit, Alka Yagnik, Babul Supriyo, Prasoon Joshi</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>© 2004 YRF Music</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hum Tum</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/tere-bina/tCejgrz7e8Y_</t>
+          <t>https://open.spotify.com/track/70r85LQ7Hcof30PJmksilm</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>37,516,113</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2008-03-27</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Vishal-Shekhar, Sunidhi Chauhan, Piyush Mishra, Anvita Dutt Guptan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>© 2008 YRF Music</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Chhaliya</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/body-language/KDleRzFUA0c</t>
+          <t>https://open.spotify.com/track/1JiR90QSjo3r6jNcPw5URO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>38,019,179</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-03-06</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mika Singh, Yo Yo Honey Singh</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>© 2014 Times Music</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Mast Kalander</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kya-say/CT0tYSByf0E</t>
+          <t>https://open.spotify.com/track/2FlkFn2YRzTQ13Fu2tfHb0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>30,530,556</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tanishk Bagchi, Zahrah S Khan, Jass Manak</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>© 2021 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tenu Lehenga (From "Satyameva Jayate 2")</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/sajna-ve/OwNZBUVZUV8</t>
+          <t>https://open.spotify.com/track/6XvQPMLZdPPV22rY7FEBpI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>32,212,861</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-12-08</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Chandana Dixit, Abhijeet, Tanishk Bagchi, Anand-Milind</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>© 2020 Tips Industries Ltd. Under Exclusive License to ADA/Warner Music</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Husnn Hai Suhaana New (from "Coolie No. 1")</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/fursat-hai-aaj-bhi/JSFaV1lEAWQ</t>
+          <t>https://open.spotify.com/track/6LvHrLiW1z8PS7MIAiufKg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>29,686,491</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Badshah, Nikhita Gandhi</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>℗ 2021 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bad Boy X Bad Girl (feat. Nikhita Gandhi)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kesariyo-rang/GBA0ew4GcH8</t>
+          <t>https://open.spotify.com/track/5OCFWPgrCCNBukB3YrDD90</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>28,639,045</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Raj Barman</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tu Mile Dil Khile</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/nindra/Bgozfx5nQwI</t>
+          <t>https://open.spotify.com/track/3FYxYv9CxrKL6vnZApQGjx</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>29,038,401</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-02-05</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Siddharth Slathia</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>© 2018 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bahut Pyar Karte Hai - Recreated Version</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jaane-de-mujhe-zeek%e2%80%99s-midnight-remix/NwdbAyICbnA</t>
+          <t>https://open.spotify.com/track/7Hkbm2DgepcriVxDrwbCcc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>28,887,011</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-05-16</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mohammed Rafi, Sanam</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>© 2019 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Taarif Karoon</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/boli-tujhse/KhotBDVUQEs</t>
+          <t>https://open.spotify.com/track/2g8fA9Ijc3sAlfkQFlYxsf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>26,116,711</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-02-22</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sachin-Jigar, Asees Kaur, Divya Kumar, Mellow D</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>℗ 2021 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Panghat (From "Roohi")</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tumhe-pyaar-karungga/IjIvByd,cHk</t>
+          <t>https://open.spotify.com/track/5Mv7UmRWMUyQrOULQk3f39</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>27,631,646</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>© 2020 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Likhe Jo Khat Tujhe</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/pyaar-ho-jayega/NS4cYExjYwA</t>
+          <t>https://open.spotify.com/track/1FLwFOt3pBEikXjtarBqmh</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>25,792,482</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-08</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tony Kakkar, Yo Yo Honey Singh, Neha Kakkar</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>© 2021 Desi Music Factory</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kanta Laga</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/single-saiyaan/IgIhWS5beV4</t>
+          <t>https://open.spotify.com/track/788Lp6lHrCrxJAZvS2l9YZ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>26,309,684</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-03-11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Salim–Sulaiman, Benny Dayal, Himani Kapoor, Amitabh Bhattacharya</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>© 2010 YRF Music</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dum Dum</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/gadbadi-nanananana/NxooCDMdY0M</t>
+          <t>https://open.spotify.com/track/02bs4xUcI9ZtAA80P5k2FW</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>27,611,085</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1997-07-04</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Udit Narayan, Sunita Rao</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>© 1997 Tips Industries Ltd. Under Exclusive License to ADA/Warner Music</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Duniya Haseenon Ka Mela</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/nai-chaida/SSwydUJodUU</t>
+          <t>https://open.spotify.com/track/5JWuNK80jSLK1jQyFInWqG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>25,436,760</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1998-05-22</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Lata Mangeshkar, Kumar Sanu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>© 1998 Tips Industries Ltd. Under Exclusive License to ADA/Warner Music</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Madhosh Dil Ki Dhadkan</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/shikayat/Mj0nUz1Ff3o</t>
+          <t>https://open.spotify.com/track/0gWQyG8QoBmB3HmvGugBWH</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>23,980,192</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2016-03-31</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sanam, S. D. Burman</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>© 2016 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hai Apna Dil To Aawara</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/nai-jeena/MiZGfwFmTX4</t>
+          <t>https://open.spotify.com/track/4IZHFWBdQwdu8PLBfobkUF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>23,161,302</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Nikhita Gandhi, Rene Bendali, Tanishk Bagchi</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>© 2020 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Do You Love Me (From "Baaghi 3")</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/maula/PAY6QkBYeFo</t>
+          <t>https://open.spotify.com/track/4v1iuf9rFqnzru36khzHen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>22,728,506</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Amit Mishra, Abhijeet, Tanishk Bagchi</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>© 2020 Tips Industries Ltd. Under Exclusive License to ADA/Warner Music</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ole Ole 2.0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/ve-tu/STpdCQJhUlc</t>
+          <t>https://open.spotify.com/track/50OVvDb6s8hUsos5AJmPnv</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>24,002,168</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Mohammad Faiz, Jaani</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>© 2023 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kabhi Shaam Dhale</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/dooriyan/EzsjVSdqUF4</t>
+          <t>https://open.spotify.com/track/7r7PJJSvVPCAQK4h0vc7xT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>22,309,556</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Farhan Sabri, Dj Chetas, Nusrat Fateh Ali Khan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>© 2021 Desi Music Factory</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bol Kaffara Kya Hoga - Dj Chetas</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/hairaan/HTIRBTVeRwc</t>
+          <t>https://open.spotify.com/track/5swv4r5dYNHhsL54jGqmn8</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>22,833,529</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-11-17</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Pritam, Arijit Singh, Neha Kakkar, Kanika Kapoor, Siddharth Mahadevan, Nakash Aziz</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>℗ 2015 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tukur Tukur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/koi-nahi/gJIlVSVChaY_</t>
+          <t>https://open.spotify.com/track/7kz0NubU5M4k9kdARMBlFK</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>23,886,180</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2012-06-15</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Miss Pooja, Neha Kakkar, Nakash Aziz, Pritam</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>© 2012 Eros Now Music</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Second Hand Jawaani</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/soulmate/rml4Y7yiqR8_</t>
+          <t>https://open.spotify.com/track/7Kfuk1S0nmjzRiAnezoC6j</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>21,849,220</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-04-17</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Tony Kakkar, Manoj Muntashir</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>© 2018 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Oh Humsafar</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/daaru-peekay-nachna/FR5cBRl3fko</t>
+          <t>https://open.spotify.com/track/6VwVEIiCro1EMyh9B6Om3v</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>21,052,964</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mellow D, Aastha Gill</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>© 2021 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Drunk n High</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tere-vaaste/E1oeVTp6Y3Q</t>
+          <t>https://open.spotify.com/track/4gDR9Rekz28zgCcYCHGEAL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>18,760,357</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Rahul Jain</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Zara Zara</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/is-this-that-feeling/Nx8dRSdxRkY</t>
+          <t>https://open.spotify.com/track/2rWYfMbQgHYXPEzbhN65Ys</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>19,241,504</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2016-02-16</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>© 2016 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Pehla Nasha</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/hona-chaida/ADs7eA1aGnc</t>
+          <t>https://open.spotify.com/track/7GxI9WBkFdyI7VbkqDj605</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>19,313,951</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-08-09</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sanam, Mira Mohamed Majid</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>© 2019 Kurian &amp; Co, Under Exclusive License from Kurian &amp; Co to Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Yeh Vaada Raha</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tere-bajjon/RCwgWSJoQGQ</t>
+          <t>https://open.spotify.com/track/7GbNmJIXY2yANs5XxGDSfp</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>19,054,807</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-07-26</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>B Praak</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sach Keh Raha Hai</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/get-down/GRkZZCRlenw</t>
+          <t>https://open.spotify.com/track/7MOXP0ZdRqWUTYz44BpsHY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>16,880,835</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Dhvani Bhanushali</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>© 2022 Hitz Music</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>DYNAMITE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/laal-mehendiyaan/Ah9dQCsAaHQ</t>
+          <t>https://open.spotify.com/track/2CdI5ifvamiLE9jpWz3xal</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>18,472,059</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1999-05-07</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Jaspinder Narula, Roop Kumar Rathod</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>© 1999 Tips Industries Ltd. Under Exclusive License to ADA/Warner Music</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tere Pyar Mein Main</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/nahi-karna-viah/FgNfRUNheHo</t>
+          <t>https://open.spotify.com/track/2N1dtRUGwGAmNTixM8UWpb</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>16,422,387</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ashish Khandal</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>© 2022 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bade Achhe Lagte Hai</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/gallan-ee-ney/HDctWx5AXVk</t>
+          <t>https://open.spotify.com/track/7E8emnJJGI1JLN7ClE5nmC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>15,383,304</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-08-11</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jubin Nautiyal, Prakriti Kakar</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Agar Tum Saath Ho-Maahi Ve</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jatt-di-star/B108Vj5zdHA</t>
+          <t>https://open.spotify.com/track/4OjfYKfJ0F38w0Dn6goVkU</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>18,887,859</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2011-05-30</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ritu Pathak, Gorisha Gogoi, Anand Raj Anand</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>© 2011 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Jalebi Bai</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/mirzaye/RxAJdllnf3o</t>
+          <t>https://open.spotify.com/track/3EeC1BTkbzslVjW4assPdu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>15,592,364</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-12-31</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sanam, S. D. Burman</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Mere Sapnon Ki Rani Kab Aayege Tu</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/lamhein/IV8ccER3D0E</t>
+          <t>https://open.spotify.com/track/7duKvhSoXrgOJuoGafhh37</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>14,126,525</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Karan Nawani</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Mere Samne Wali</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/out-of-control/QQcoBCN5cQI</t>
+          <t>https://open.spotify.com/track/6S6igJi5j9FP1JVzl9EVqu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>14,498,362</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-08-09</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>© 2019 Kurian &amp; Co, Under Exclusive License from Kurian &amp; Co to Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Dil Kya Kare</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/feel-the-vibe/OzsCHC5CX3U</t>
+          <t>https://open.spotify.com/track/1lMhoj9QVjrTTRokk8kW0u</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>14,865,227</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2006-05-13</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Himesh Reshammiya</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>© 2006 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>O Meri Zohrajabeen</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kol-rakh/P1ggVUBvWmI</t>
+          <t>https://open.spotify.com/track/1qSCX7SBeluSuBPtQMFNfc</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>13,458,073</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-12-28</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Sreerama Chandra</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pee Loon-Ishq Sufiyana</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/saari-raat/Iz8pXz9xRmk</t>
+          <t>https://open.spotify.com/track/1n6s8jbTxktMvW0hpJDgMX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>13,154,578</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-09-09</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tony Kakkar</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>© 2020 Desi Music Factory</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Chocolate (From "Sangeetkaar")</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/dil-de-huzoora/PxsBekRhWAc</t>
+          <t>https://open.spotify.com/track/4ZoIQLHOAD6jwsQ0daI5M2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>13,602,101</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-04-22</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Arijit Singh, Kunaal Vermaa, Amaal Mallik</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>© 2019 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tu Mila To Haina (From "De De Pyaar De")</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/pyaar-chahiye/BQc0BCIdT34</t>
+          <t>https://open.spotify.com/track/1QIwicVeFLDc79loIR04UE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>14,264,878</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-11-30</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sanam, S. D. Burman</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>© 2017 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Jaane Woh Kaise</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/daffa-ho/JQ4NBhkGeGs</t>
+          <t>https://open.spotify.com/track/6O2UGqSFl9KWMbBrHho8os</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>13,143,208</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-07-04</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Udit Narayan, Alka Yagnik</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>© 2019 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tip Tip Barsa Paani - Hip Hop Remix</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/sohnneyaa/MlsuSTFXbks</t>
+          <t>https://open.spotify.com/track/5aN5zVgz1zAfE6LMxuJYaJ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>13,938,928</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-01-15</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Navraj Hans, Harshdeep Kaur, Rochak Kohli</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>© 2019 Saregama India Ltd.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Gud Naal Ishq Mitha (From "Ek Ladki Ko Dekha Toh Aisa Laga")</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/high-court/Ny06WCx3XAQ</t>
+          <t>https://open.spotify.com/track/1ouPVtxlolKZGedxSTrgD5</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>22,302,742</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>THE 9TEEN, Sandesh Shandilya</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>℗ 2024 Sony Music Entertainment India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Aankhon Mein Doob Jaane Ko</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/soneya/Mg9SUENSWVg</t>
+          <t>https://open.spotify.com/track/6aPmNrzDgCIAYeuQBtAXYo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>12,230,939</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Pranav Chandran</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kya hua Tera Wada</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/future-mehbooba/GC4,Uy0GVAo</t>
+          <t>https://open.spotify.com/track/5zwx904y89dEC5uE6tO9ZR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>12,836,033</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Mustafa Zahid</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>© 2022 Vishesh Films Pvt. Ltd. under exclusive license to Warner Music India</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Toh Phir Aao - Lounge Version</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/door-akhiyon-se/RSU6cjkETUI</t>
+          <t>https://open.spotify.com/track/0uAjnsZ6ZwvQvl7lhYM2KF</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11,963,993</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-06-30</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sanam, Shirley Setia, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>© 2015 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kuchh Na Kaho</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/funk-billo/Ig8oRzlEYnY</t>
+          <t>https://open.spotify.com/track/1Qm1fTU7WTJ6LD076ntftt</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11,431,125</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-11-28</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>B Praak, Tanishk Bagchi</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>© 2020 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Baras Baras (From "Durgamati - The Myth")</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/deewana/FD4FdjZfUgA</t>
+          <t>https://open.spotify.com/track/5rEl0DutMdssgFZ7qI88Ut</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11,253,856</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-07</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Jassie Gill, Simar Kaur, Avvy Sra</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Leke Pehla Pehla Pyaar</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/i%e2%80%99m-flyin/RTgMaUBlb38</t>
+          <t>https://open.spotify.com/track/4QNK4GgqikgbAX4jthAwAZ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>11,024,006</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-05-24</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Rahul Jain</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>© 2018 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Jab Koi Baat - Recreated Version</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/midnight/CAk,bhdgb2o</t>
+          <t>https://open.spotify.com/track/3EgSgxtUGAyntCXoNu0ACk</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,989,087</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-06-26</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Shirley Setia, Jubin Nautiyal, Abhijit Vaghani, Pritam</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tu Jo Mila-Raabta</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/bepanah-pyaar/HSsdBRYEcks</t>
+          <t>https://open.spotify.com/track/40Fq3xq1PAZiN5jxNwmHI8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,447,999</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Rahul Jain, Roshni Saha</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>© 2019 Rahul jain</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bepannah - Duet Version</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/album/intezaar/EkBUApElf1M_</t>
+          <t>https://open.spotify.com/track/6oyYFPz7vk4Pi5i7h5FEKB</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,599,713</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-12-04</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Mohammed Irfan</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Hothon Se Chhu Lo Tum - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jahaan-pe-dil-hai/ESY0cDlTUWE</t>
+          <t>https://open.spotify.com/track/6dkoeiIuVDJXgpWA03BHNL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,512,948</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sanam, Laxmikant–Pyarelal</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>© 2018 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Ek Pyar Ka Nagma Hai</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/intezaar-lofi/KgJYSAR9cXc</t>
+          <t>https://open.spotify.com/track/3uWgqLET07l0AtFtCnleo8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,274,579</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-03-01</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sanam, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>© 2019 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Humein Tumse Pyar Kitna</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/wanga-kaaliyan/OzIYCARjQGA</t>
+          <t>https://open.spotify.com/track/2Y5eAIfa0A2U3odWBqqLPJ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9,910,178</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-27</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Ash King</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Neele Neele Ambar Par - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/laal-bindi-unplugged/BwYTZxllb0o</t>
+          <t>https://open.spotify.com/track/39m3fIHe27SVy9NslpFzV4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9,877,842</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-27</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Mohammed Irfan</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Chhukar Mere Man Ko - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/intezaar-acoustic/XSkyQyJUA3w</t>
+          <t>https://open.spotify.com/track/5XAKbSGqd1mU1wUnRzR9cl</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,282,966</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Shruti Rane</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Do Ghoont</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/chandni/RVE6cEVJUgQ</t>
+          <t>https://open.spotify.com/track/3UQU1xGAfYokAofQ4KzJeN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9,805,830</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-07-31</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sanam, S. D. Burman</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>© 2015 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Roop Tera Mastana</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/tere-bina-acoustic/LzoSchtSR1U</t>
+          <t>https://open.spotify.com/track/2LgoelKBVrqHAucYxe5FFA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>9,805,830</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>© Saregama</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Roop Tera Mastana (Remix) - From "Aradhana"</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/naina/Qj8idRcGbR4</t>
+          <t>https://open.spotify.com/track/4kvbqzcnqRbk6gu9wyOMpn</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>10,623,788</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sachin Gupta, Sanam</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>© 2022 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Yeh Raaten Yeh Mausam - Lofi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/soon/ETkFVRMBb14</t>
+          <t>https://open.spotify.com/track/7IJxDbWdAAkB4sojcKqZv3</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,992,304</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Rahul Vaidya</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>© 2021 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Aankh Hai Bhari Bhari Aur Tum 2.0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/teri-yaadein/HjkAX0J-VGU</t>
+          <t>https://open.spotify.com/track/68yvVCPYnG7V1GNz7UvGGS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,348,198</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-07-16</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sanam, Kunaal Vermaa</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>© 2019 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Jaane De Mujhe</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JioSaavn - Listen to New &amp; Old Indian &amp; English Songs. Anywhere, Anytime.</t>
+          <t>https://open.spotify.com/track/2unqoFctPdbGJ0JijNPbeO</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,348,198</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-08-09</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sanam, Kunaal Vermaa</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>© 2019 Kurian &amp; Co, Under Exclusive License from Kurian &amp; Co to Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Jaane De Mujhe</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/yaad-na-aaye-retro-pop-mix/IgINWB1DZnU</t>
+          <t>https://open.spotify.com/track/0Lqxz4U8R2643WhJIHDLVE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,574,382</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-09-20</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sanam, Sanah Moidutty</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>© 2019 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Aajkal Tere Mere Pyar Ke Charche</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jaane-de/Hg0,WRJ,fAs</t>
+          <t>https://open.spotify.com/track/0MNgTp3FLtbPiCvrG8lsru</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,285,273</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rahul Jain</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>© 2019 Rahul Jain</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Ye Pyar Nahi To Kya Hai</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/akhaan/Jh8FHCNDZkM</t>
+          <t>https://open.spotify.com/track/0bEujOeS7AlxwamX5PtmWj</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,472,503</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-07-30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Jonita Gandhi</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>© 2018 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Tu Tu Hai Wohi - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/faraar-uplift-mix/F11TWBABaF0</t>
+          <t>https://open.spotify.com/track/1GEEOSTBIu59wbPWWwi0yN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,075,572</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sanam, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Mere Samnewali Khidki Mein</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/the-payal-dev-mashup-by-dj-kiran-kamath/HxApay1nfkc</t>
+          <t>https://open.spotify.com/track/1eMxTvBQEeBAxQDC2ZBld1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,144,036</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-08-31</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sanam, R. D. Burman</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>© 2014 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Ek Ladki Ko Dekha To</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/heer/BDIkCUV1T3o</t>
+          <t>https://open.spotify.com/track/1NKiwsq3cE1lBTlT0ejqav</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,144,036</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>© Saregama</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Ek Ladki Ko Dekha To (Remix) - From "1942: A Love Story"</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kisi-aur-naal-acoustic/RVA7QxxcdWU</t>
+          <t>https://open.spotify.com/track/70oyK852uX6zmyCfu3bdIj</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,313,559</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Pritam, Dikshant, Irshad Kamil</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>© 2023 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Baithe Baithe (From "T-Series Listed")</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/the-monsoon-mashup-by-dj-yogii/MwoBfDtTXwM</t>
+          <t>https://open.spotify.com/track/2iVbbaQdx7VR3gCCFkGxBs</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,346,079</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Shriram Iyer</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>© 2021 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Afreen Afreen</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/pyaar-karte-ho-na-acoustic/OQIkYiddUAE</t>
+          <t>https://open.spotify.com/track/6O4sY51NvytQFRAGraqajN</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,897,486</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-02-16</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Sanam, Aishwarya Majmudar</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>© 2017 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Yeh Raat Bheegi Bheegi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/aaj-bhi-wormono-lofi-remake/NB4idx5mBUE</t>
+          <t>https://open.spotify.com/track/2gIiSh7vWNaiNDxImfG6Cm</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>8,001,709</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-12-04</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Arnab Chakraborty, Akriti Kakar</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kehdoon Tumhe - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/bahana-whistle-mix/KQVScEdXVEI</t>
+          <t>https://open.spotify.com/track/5rBzxyoYiu90sszkHEmCeH</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,588,806</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-04-25</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Siddharth Slathia</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>© 2019 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Dil Kehta Hai - Recreated Version</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/jaane-jaa/FiQtHA17ZEA</t>
+          <t>https://open.spotify.com/track/4AIhGvokKunj4NEdVlOxFb</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,395,568</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sanam</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>© 2023 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kya Hua Tera Wada</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/selfiyan/HRkbcBlWYVw</t>
+          <t>https://open.spotify.com/track/35Hv254Qn97GXNqWFIrYWP</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,028,180</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Neha Kakkar, Guru Randhawa, Sachet-Parampara</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>© 2021 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Aur Pyaar Karna Hai</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/aakhir/FQVcBxgIXXQ</t>
+          <t>https://open.spotify.com/track/0BTuNQ4odw407Tsu6x0o4x</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6,885,988</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-12-04</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ash King</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Aise Na Mujhe Tum Dekho - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/aakhir/FQVcBxgIXXQ</t>
+          <t>https://open.spotify.com/track/48nfbd3WZSfo4xMGjmz3e3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,791,917</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Vylom, Niazi Nizami Bros</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>© 2023 Saregama India Ltd</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Hasta Hua Noorani Chehra - Qawwali Version</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kabhi-shaam-dhale/PyYtBx8DWx4</t>
+          <t>https://open.spotify.com/track/7lMUrlhhPK6sCE5SFH6oJ0</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>7,672,403</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2001-08-03</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Udit Narayan, Alka Yagnik</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>© 2001 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Paa Liya Hain Pyar Tera</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/kabhi-shaam-dhale/PyYtBx8DWx4</t>
+          <t>https://open.spotify.com/track/6CJKyT5BjzAI5SYZgtOB27</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6,871,584</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-27</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Arnab Chakraborty, Akriti Kakar</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Wada Karo - The Unwind Mix</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.jiosaavn.com/song/rang-biscuity/XV8sVgZBQQU</t>
+          <t>https://open.spotify.com/track/6j5y7MeUlfgY6fqI23nKWK</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>6,936,694</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-27</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Mohammed Irfan</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>© 2015 Strumm Entertainment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Pal Pal Dil Ke Paas - The Unwind Mix</t>
         </is>
       </c>
     </row>

--- a/Book1 (1).xlsx
+++ b/Book1 (1).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,158 +436,2174 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>spotify link</t>
+          <t>savan link</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NEW PLAYS September 01, 2025</t>
+          <t>Plays  March 13, 2024</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ARTISTS</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LABELS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TITLE</t>
+          <t>Labels</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5NngmzhAt8aJtCmunFWRCh</t>
+          <t>https://www.jiosaavn.com/song/baarish-ban-jaana/MQcGaxFJD3Q</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,015</t>
+          <t>217916475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>© 2024 ℗ Manandabhagwati@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7h3Pno1aFbHpFsoqzF0sLX</t>
+          <t>https://www.jiosaavn.com/album/jo-tu-na-mila/OXw4odPYPFg_</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Invalid URL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>© 2024 Pabitra Entertainment</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>Invalid URL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4R9ecfTfS2BWCbgIn8zl9T</t>
+          <t>https://www.jiosaavn.com/song/zihaal-e-miskin/OQAgUxlXTmM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>78089233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>© 2024 Inbox Tunes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
+          <t>℗ 2023 Universal Music India Pvt. Ltd.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5ZY6Tet68fX8ea0R0D80T5</t>
+          <t>https://www.jiosaavn.com/song/laal-bindi/FzggVyNKdUY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>261,385</t>
+          <t>39968759</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>© 2024 Merchant Records</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>℗ 2018 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tu-bhi-sataya-jayega/HhotQSZaQWY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25291379</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/dhokebaaz/PV0hfEdxelo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19529014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>℗ 2022 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/pyaar-karte-ho-na/qjDZ,EIA4Ic_</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Invalid URL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Invalid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/aaj-bhi/RA8GHDVedUs</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>65506601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>℗ 2020 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/aaya-na-tu/PzpoK6A6L7o_</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Invalid URL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Invalid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/baarish-ban-jaana/MQcGaxFJD3Q</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217916475</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/bepanah-pyaar/HSsdBRYEcks</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>36619014</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>℗ 2021 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/yaad-na-aaye/PwAyfSYJTV8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>38916923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>℗ 2022 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/laal-chunariya/BC8ZCSRhbUY</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>63215031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>℗ 2020 Universal Music India Pvt. Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/woh-chaand-kahan-se-laogi/zoaO9yQ2GcM_</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/galat/RF4DWgxfVF8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/i-love-you/HwIBZBYFAl0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/drunk-n-high/FBwJBCRkTX8</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/baarish-aayi-hai/Kik6a1kJeWM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/baarish-ban-jaana-bhojpuri/SD8bRzt3QQY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/bepanah-ishq/BxA4QBF4QmU</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kehndi-haan-kehndi-naa/JxwcAStWb2w</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jodaa/AlomXhsCGgA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/faraar/GCUbaRVxekc</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/intezaar/EkBUApElf1M_</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/ae-mere-dil/PiMFaAdgX0k</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/mohabbat-hai/QxEnbkJXT2w</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/majnu/LyMDQENfGnk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/saaiyaan/KV0AYxpDRnc</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/sona-lagda/CV0sBDBWBVU</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/mafiyaan/KScmZDgIbwc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/teri-ada/R1AzACtcXWQ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/bahana/GScdY0IEXWE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/party-nonstop/BQwHe0IIAVw</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/waada-hai/BjE6ekcFVn0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/humko-tum-mil-gaye/OBsZQRx-QgY</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/khud-se-zyada/Nlk5RzgAVQo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kisi-aur-naal/BgMHQxtadn8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/hum-tum/Ii4gSBhpVXg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jo-tu-na-mila-acoustic/AAclAFlEWVU</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/woh-baarishein/N1ssXRFmfAs</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tu-na-mera/SV4kAARoAkc</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tumse-pyaar-hai/FhseAiJgXVQ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/cheater-mohan/I0VZdVl2aHA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/kya-kar-diya/rPPF16gUpFE_</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/barsaat-aa-gayi/8EDohweBnhE_</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tum-na-ho/RFtfdAQEZlw</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/tere-bina/tCejgrz7e8Y_</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/body-language/KDleRzFUA0c</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kya-say/CT0tYSByf0E</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/sajna-ve/OwNZBUVZUV8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/fursat-hai-aaj-bhi/JSFaV1lEAWQ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kesariyo-rang/GBA0ew4GcH8</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/nindra/Bgozfx5nQwI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jaane-de-mujhe-zeek%e2%80%99s-midnight-remix/NwdbAyICbnA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/boli-tujhse/KhotBDVUQEs</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tumhe-pyaar-karungga/IjIvByd,cHk</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/pyaar-ho-jayega/NS4cYExjYwA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/single-saiyaan/IgIhWS5beV4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/gadbadi-nanananana/NxooCDMdY0M</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/nai-chaida/SSwydUJodUU</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/shikayat/Mj0nUz1Ff3o</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/nai-jeena/MiZGfwFmTX4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/maula/PAY6QkBYeFo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/ve-tu/STpdCQJhUlc</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/dooriyan/EzsjVSdqUF4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/hairaan/HTIRBTVeRwc</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/koi-nahi/gJIlVSVChaY_</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/soulmate/rml4Y7yiqR8_</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/daaru-peekay-nachna/FR5cBRl3fko</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tere-vaaste/E1oeVTp6Y3Q</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/is-this-that-feeling/Nx8dRSdxRkY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/hona-chaida/ADs7eA1aGnc</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tere-bajjon/RCwgWSJoQGQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/get-down/GRkZZCRlenw</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/laal-mehendiyaan/Ah9dQCsAaHQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/nahi-karna-viah/FgNfRUNheHo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/gallan-ee-ney/HDctWx5AXVk</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jatt-di-star/B108Vj5zdHA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/mirzaye/RxAJdllnf3o</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/lamhein/IV8ccER3D0E</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/out-of-control/QQcoBCN5cQI</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/feel-the-vibe/OzsCHC5CX3U</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kol-rakh/P1ggVUBvWmI</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/saari-raat/Iz8pXz9xRmk</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/dil-de-huzoora/PxsBekRhWAc</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/pyaar-chahiye/BQc0BCIdT34</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/daffa-ho/JQ4NBhkGeGs</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/sohnneyaa/MlsuSTFXbks</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/high-court/Ny06WCx3XAQ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/soneya/Mg9SUENSWVg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/future-mehbooba/GC4,Uy0GVAo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/door-akhiyon-se/RSU6cjkETUI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/funk-billo/Ig8oRzlEYnY</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/deewana/FD4FdjZfUgA</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/i%e2%80%99m-flyin/RTgMaUBlb38</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/midnight/CAk,bhdgb2o</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/bepanah-pyaar/HSsdBRYEcks</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/album/intezaar/EkBUApElf1M_</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jahaan-pe-dil-hai/ESY0cDlTUWE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/intezaar-lofi/KgJYSAR9cXc</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/wanga-kaaliyan/OzIYCARjQGA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/laal-bindi-unplugged/BwYTZxllb0o</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/intezaar-acoustic/XSkyQyJUA3w</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/chandni/RVE6cEVJUgQ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/tere-bina-acoustic/LzoSchtSR1U</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/naina/Qj8idRcGbR4</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/soon/ETkFVRMBb14</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/teri-yaadein/HjkAX0J-VGU</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>JioSaavn - Listen to New &amp; Old Indian &amp; English Songs. Anywhere, Anytime.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/yaad-na-aaye-retro-pop-mix/IgINWB1DZnU</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jaane-de/Hg0,WRJ,fAs</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/akhaan/Jh8FHCNDZkM</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/faraar-uplift-mix/F11TWBABaF0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/the-payal-dev-mashup-by-dj-kiran-kamath/HxApay1nfkc</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/heer/BDIkCUV1T3o</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kisi-aur-naal-acoustic/RVA7QxxcdWU</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/the-monsoon-mashup-by-dj-yogii/MwoBfDtTXwM</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/pyaar-karte-ho-na-acoustic/OQIkYiddUAE</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/aaj-bhi-wormono-lofi-remake/NB4idx5mBUE</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/bahana-whistle-mix/KQVScEdXVEI</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/jaane-jaa/FiQtHA17ZEA</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/selfiyan/HRkbcBlWYVw</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/aakhir/FQVcBxgIXXQ</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/aakhir/FQVcBxgIXXQ</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kabhi-shaam-dhale/PyYtBx8DWx4</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/kabhi-shaam-dhale/PyYtBx8DWx4</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.jiosaavn.com/song/rang-biscuity/XV8sVgZBQQU</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>None</t>
         </is>
